--- a/pop_clusters_per_country.xlsx
+++ b/pop_clusters_per_country.xlsx
@@ -451,7 +451,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -906,7 +906,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -958,7 +958,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1023,7 +1023,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1075,7 +1075,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
